--- a/data/trans_dic/P55$familiar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4039802358420891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5491462660295706</v>
+        <v>0.5491462660295708</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2583505649808615</v>
@@ -685,7 +685,7 @@
         <v>0.2851460213544968</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6089040383659966</v>
+        <v>0.6089040383659967</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2273427341191672</v>
@@ -697,7 +697,7 @@
         <v>0.3226927651001588</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5859336495514218</v>
+        <v>0.5859336495514219</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07526130671973068</v>
+        <v>0.08054780458364812</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1129120217148762</v>
+        <v>0.1232366309205371</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2503786363841122</v>
+        <v>0.2443701679269425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4297522630806214</v>
+        <v>0.4442143970360584</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1383686300898611</v>
+        <v>0.1399210219356476</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2461376041204879</v>
+        <v>0.2563528817996909</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.170235026918921</v>
+        <v>0.1718659224654569</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5391026549054567</v>
+        <v>0.5376748630456404</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1438204619873237</v>
+        <v>0.1446109563839804</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.23631005020904</v>
+        <v>0.2302350000754335</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2286602367968217</v>
+        <v>0.2320918440595217</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5205697441095221</v>
+        <v>0.5241697497542565</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3426199804403977</v>
+        <v>0.3620600761380877</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4285052300304404</v>
+        <v>0.4419398006192122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5932761500480248</v>
+        <v>0.5820551074894385</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6610053837188061</v>
+        <v>0.6573986127564114</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4110633011901702</v>
+        <v>0.4044689425766935</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5076930482734153</v>
+        <v>0.5135180205534796</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4171589751995887</v>
+        <v>0.4272137042529736</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6835831648845057</v>
+        <v>0.6886336506226663</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3288683959727021</v>
+        <v>0.3343310117882454</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4307735374565932</v>
+        <v>0.4344343575178231</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4385752710343958</v>
+        <v>0.4267821517592258</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.643981294706894</v>
+        <v>0.6511440082450843</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07915986431276001</v>
+        <v>0.07936295278790038</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1401878253059717</v>
+        <v>0.1438298979160458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2076177838063897</v>
+        <v>0.2018254407764615</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4271237171496626</v>
+        <v>0.4209038184054224</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.228749599075467</v>
+        <v>0.2297419630947212</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2124861215197999</v>
+        <v>0.2249825712580508</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1687638488784114</v>
+        <v>0.1629824775058843</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5469471959986236</v>
+        <v>0.5347262165620404</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1848670595161177</v>
+        <v>0.1803308789377165</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2290695515519109</v>
+        <v>0.224370424129216</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.209171812882697</v>
+        <v>0.2169320117606494</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5324707400153258</v>
+        <v>0.538808178448291</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2909577089024189</v>
+        <v>0.2858610652639862</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.418058551297128</v>
+        <v>0.4244473293360547</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4844365616167796</v>
+        <v>0.4702492276754667</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6725983241534972</v>
+        <v>0.6729316709838253</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4528220721848708</v>
+        <v>0.4508691369647319</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4335268199534383</v>
+        <v>0.4249453587338551</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4078482794205552</v>
+        <v>0.3992508480008617</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6961625771550728</v>
+        <v>0.6887572813792214</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3472930841638778</v>
+        <v>0.3420101603243404</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3907508522922349</v>
+        <v>0.3919321746036226</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3967111667512031</v>
+        <v>0.4007559602462487</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6605288810382302</v>
+        <v>0.6619651270624188</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.2433459866249227</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5054462443932378</v>
+        <v>0.5054462443932377</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1206288301808778</v>
+        <v>0.1122603382396198</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06813440835803518</v>
+        <v>0.06606202881072588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07722716573609653</v>
+        <v>0.07647711439034235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2420086718016301</v>
+        <v>0.2287231357830424</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1823997379739017</v>
+        <v>0.1689026215838156</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1628969011714894</v>
+        <v>0.1615957822918818</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1355352968261231</v>
+        <v>0.1298774617081934</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.464675055790805</v>
+        <v>0.4588201636550118</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1869929659894505</v>
+        <v>0.1863299495188769</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1528674048768521</v>
+        <v>0.1554187831503604</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.150908309206542</v>
+        <v>0.1456100622630001</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4185581960968605</v>
+        <v>0.4198695919957568</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5524845814420359</v>
+        <v>0.5217677445087922</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.355497231150567</v>
+        <v>0.381109860130679</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4333234757242354</v>
+        <v>0.4072545289603294</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5614504145077526</v>
+        <v>0.5527465400981096</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.45137297154531</v>
+        <v>0.4344349228454057</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4061010222573906</v>
+        <v>0.4045504049982645</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3971240160080667</v>
+        <v>0.404411975385666</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6616741745667285</v>
+        <v>0.646305142007131</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4095324832638086</v>
+        <v>0.433982293292707</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3459770190520455</v>
+        <v>0.3485648475266332</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3560985167635571</v>
+        <v>0.373425144397571</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5909636558361387</v>
+        <v>0.5827515566104392</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2671613627346456</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5064740028828044</v>
+        <v>0.5064740028828042</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06994045168795257</v>
+        <v>0.06996439858030744</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09892277270131795</v>
+        <v>0.0950771845625038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08075883571758478</v>
+        <v>0.0757351959859373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3413917511385987</v>
+        <v>0.3477948616250314</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08243591605895607</v>
+        <v>0.08073394741559262</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2050370433351056</v>
+        <v>0.216946552303211</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1818276071339506</v>
+        <v>0.1940029823322615</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4501864897858907</v>
+        <v>0.4418693277778137</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.099744364469109</v>
+        <v>0.09828892661288258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2010625750217108</v>
+        <v>0.200772748374099</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1782132241020397</v>
+        <v>0.1747331354684688</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4510483624432296</v>
+        <v>0.4464750009692185</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3722476059746866</v>
+        <v>0.3598926260443029</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3568957469824977</v>
+        <v>0.3546931625452484</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3521316842711062</v>
+        <v>0.340963125178001</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5721163039432022</v>
+        <v>0.5890742590619336</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2800252054428491</v>
+        <v>0.2751088892329761</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4256777114012028</v>
+        <v>0.4244155193402567</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4247194222162288</v>
+        <v>0.4381749223028601</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6009261307149698</v>
+        <v>0.5925980084046771</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2635495031461852</v>
+        <v>0.253426120534098</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3678454350762863</v>
+        <v>0.3670200080620851</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3746478654010267</v>
+        <v>0.3614431888101293</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.576054726976402</v>
+        <v>0.5632560587045131</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2913127646686062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.499330212652268</v>
+        <v>0.4993302126522681</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2557371658920687</v>
@@ -1229,7 +1229,7 @@
         <v>0.2796314783268767</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5753711342695561</v>
+        <v>0.5753711342695562</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2333796087890873</v>
@@ -1241,7 +1241,7 @@
         <v>0.2832804344144774</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5509390828393024</v>
+        <v>0.5509390828393023</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1260247094687757</v>
+        <v>0.1368441615729329</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1623342955361214</v>
+        <v>0.1621881294445405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2158130664458962</v>
+        <v>0.2190425914393711</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.438497839853246</v>
+        <v>0.4409759403827227</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2021249972789979</v>
+        <v>0.1989970118154025</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2614857081672226</v>
+        <v>0.2640111137412486</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2232358702697837</v>
+        <v>0.223229096580025</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5325285231013044</v>
+        <v>0.5374346605038134</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1898722202856415</v>
+        <v>0.1927290954218062</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2466038256838472</v>
+        <v>0.2424513138837983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2391127998660184</v>
+        <v>0.2335336905231195</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5167190147420645</v>
+        <v>0.5139491388266003</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2611803867869297</v>
+        <v>0.2790742133208688</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.310686426394403</v>
+        <v>0.3112911963174954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3643033143631941</v>
+        <v>0.368713043047995</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5637618466524511</v>
+        <v>0.5659138741824152</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3229410421528258</v>
+        <v>0.3189315091687445</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3836210234831081</v>
+        <v>0.3770778320358577</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3502903037867434</v>
+        <v>0.3456704478220551</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6123705853640998</v>
+        <v>0.6153927874222012</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2800982219981317</v>
+        <v>0.2849507622718641</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3287731808288414</v>
+        <v>0.3351425038088994</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3314516226215171</v>
+        <v>0.3303181974015781</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5858914964958472</v>
+        <v>0.5838698396335664</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2549</v>
+        <v>2729</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3674</v>
+        <v>4010</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6955</v>
+        <v>6788</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22775</v>
+        <v>23542</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6197</v>
+        <v>6267</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15015</v>
+        <v>15638</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10238</v>
+        <v>10336</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>45756</v>
+        <v>45635</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11313</v>
+        <v>11375</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>22104</v>
+        <v>21536</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>20103</v>
+        <v>20405</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>71771</v>
+        <v>72268</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11606</v>
+        <v>12265</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13942</v>
+        <v>14379</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16480</v>
+        <v>16168</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35031</v>
+        <v>34839</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18410</v>
+        <v>18115</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30970</v>
+        <v>31326</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25087</v>
+        <v>25692</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>58018</v>
+        <v>58447</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>25869</v>
+        <v>26299</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40294</v>
+        <v>40637</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>38558</v>
+        <v>37521</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>88786</v>
+        <v>89774</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3801</v>
+        <v>3811</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6400</v>
+        <v>6567</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8493</v>
+        <v>8256</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17877</v>
+        <v>17617</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15482</v>
+        <v>15549</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18771</v>
+        <v>19875</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12968</v>
+        <v>12524</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>51761</v>
+        <v>50605</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>21389</v>
+        <v>20865</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>30694</v>
+        <v>30065</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>24631</v>
+        <v>25544</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>72678</v>
+        <v>73543</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13972</v>
+        <v>13728</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19087</v>
+        <v>19379</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19818</v>
+        <v>19237</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28152</v>
+        <v>28166</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30647</v>
+        <v>30515</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38298</v>
+        <v>37540</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>31341</v>
+        <v>30680</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>65883</v>
+        <v>65182</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>40183</v>
+        <v>39571</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>52359</v>
+        <v>52517</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>46714</v>
+        <v>47190</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>90157</v>
+        <v>90353</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2603</v>
+        <v>2422</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1904</v>
+        <v>1846</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1797</v>
+        <v>1779</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7189</v>
+        <v>6795</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8475</v>
+        <v>7848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8457</v>
+        <v>8389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6990</v>
+        <v>6698</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30156</v>
+        <v>29777</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12723</v>
+        <v>12678</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>12207</v>
+        <v>12411</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11293</v>
+        <v>10896</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>39598</v>
+        <v>39722</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11920</v>
+        <v>11258</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9933</v>
+        <v>10648</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10080</v>
+        <v>9474</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16679</v>
+        <v>16420</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20973</v>
+        <v>20186</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21083</v>
+        <v>21003</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20480</v>
+        <v>20856</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>42941</v>
+        <v>41944</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27865</v>
+        <v>29528</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>27628</v>
+        <v>27835</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26648</v>
+        <v>27945</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>55908</v>
+        <v>55131</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3960</v>
+        <v>3806</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2383</v>
+        <v>2235</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15213</v>
+        <v>15499</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5935</v>
+        <v>5812</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16049</v>
+        <v>16981</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14330</v>
+        <v>15290</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>50795</v>
+        <v>49857</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9485</v>
+        <v>9347</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>23787</v>
+        <v>23753</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>19304</v>
+        <v>18927</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>70993</v>
+        <v>70273</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8601</v>
+        <v>8316</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14288</v>
+        <v>14200</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10391</v>
+        <v>10061</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25495</v>
+        <v>26251</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20160</v>
+        <v>19806</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>33319</v>
+        <v>33220</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>33473</v>
+        <v>34533</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>67804</v>
+        <v>66864</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25063</v>
+        <v>24100</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>43519</v>
+        <v>43421</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>40581</v>
+        <v>39151</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>90668</v>
+        <v>88654</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>15952</v>
+        <v>17321</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23728</v>
+        <v>23707</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26212</v>
+        <v>26604</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>74159</v>
+        <v>74578</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>46675</v>
+        <v>45953</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>73093</v>
+        <v>73799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>59685</v>
+        <v>59683</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>190241</v>
+        <v>191994</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>67880</v>
+        <v>68901</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>104979</v>
+        <v>103211</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>92972</v>
+        <v>90803</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>271981</v>
+        <v>270523</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>33060</v>
+        <v>35325</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>45412</v>
+        <v>45501</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>44248</v>
+        <v>44783</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>95344</v>
+        <v>95708</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>74574</v>
+        <v>73648</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>107234</v>
+        <v>105405</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>93655</v>
+        <v>92419</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>218764</v>
+        <v>219844</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>100135</v>
+        <v>101870</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>139958</v>
+        <v>142669</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>128875</v>
+        <v>128435</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>308391</v>
+        <v>307327</v>
       </c>
     </row>
     <row r="24">
